--- a/Unified_IBNP_Template_v2.xlsx
+++ b/Unified_IBNP_Template_v2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB34759-EEA9-4F0B-9BD2-EAAF8F1BF574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9FF3DA-68D8-418D-A0E8-99F006327A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{78E4E008-1033-4B93-93C2-09E0F288D5FF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{78E4E008-1033-4B93-93C2-09E0F288D5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Completion Factors" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Plot Patterns" sheetId="3" r:id="rId2"/>
+    <sheet name="Summary" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>Paid Percentages</t>
   </si>
@@ -289,6 +290,36 @@
   <si>
     <t>Selected</t>
   </si>
+  <si>
+    <t>Volume All</t>
+  </si>
+  <si>
+    <t>Volume 12</t>
+  </si>
+  <si>
+    <t>Volume 6</t>
+  </si>
+  <si>
+    <t>Volume 3</t>
+  </si>
+  <si>
+    <t>Simple All</t>
+  </si>
+  <si>
+    <t>Simple 12</t>
+  </si>
+  <si>
+    <t>Simple 6</t>
+  </si>
+  <si>
+    <t>Simple 3</t>
+  </si>
+  <si>
+    <t>Cumulative Development</t>
+  </si>
+  <si>
+    <t>Incremental Pattern</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +333,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +391,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -464,7 +503,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -524,6 +563,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -541,6 +586,3927 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cumulative Development</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8909-47DE-AC5F-6DFC6BAD62FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8909-47DE-AC5F-6DFC6BAD62FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8909-47DE-AC5F-6DFC6BAD62FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8909-47DE-AC5F-6DFC6BAD62FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$F$2:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8909-47DE-AC5F-6DFC6BAD62FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$G$2:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8909-47DE-AC5F-6DFC6BAD62FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8909-47DE-AC5F-6DFC6BAD62FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$I$2:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8909-47DE-AC5F-6DFC6BAD62FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$J$2:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8909-47DE-AC5F-6DFC6BAD62FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1346587632"/>
+        <c:axId val="1346584272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1346587632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346584272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1346584272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346587632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Incremental Pattern</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$N$2:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C94A-44C8-81CB-98925460A453}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$O$2:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C94A-44C8-81CB-98925460A453}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$P$2:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C94A-44C8-81CB-98925460A453}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$Q$2:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C94A-44C8-81CB-98925460A453}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$R$2:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C94A-44C8-81CB-98925460A453}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$S$2:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C94A-44C8-81CB-98925460A453}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$T$2:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C94A-44C8-81CB-98925460A453}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$U$2:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C94A-44C8-81CB-98925460A453}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$V$2:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C94A-44C8-81CB-98925460A453}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1346587632"/>
+        <c:axId val="1346584272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1346587632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346584272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1346584272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346587632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>20638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1169875B-A3C5-4A18-EC3D-A785F0212524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>169863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71386781-2DEA-4258-9C79-1DDBBB2DBDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2649,7 +6615,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2657,34 +6623,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -2965,7 +6931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33891FD9-7FAA-4558-B0D0-CDB4EEE37652}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -4473,6 +8439,749 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A121FFD-C2DF-4B67-A547-73CD78BEAF38}">
+  <dimension ref="A1:AA24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="M2" s="37">
+        <v>1</v>
+      </c>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>+A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="M3">
+        <f>+M2+1</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A24" si="0">+A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="M4">
+        <f t="shared" ref="M4:M24" si="1">+M3+1</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC925F8-292B-4446-A0F6-4CBF2C3387B6}">
   <dimension ref="A4:AR54"/>
   <sheetViews>

--- a/Unified_IBNP_Template_v2.xlsx
+++ b/Unified_IBNP_Template_v2.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://actrisk-my.sharepoint.com/personal/sofia_moretti_actrisk_com/Documents/Documents/GitHub/DMI_IBNP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9FF3DA-68D8-418D-A0E8-99F006327A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0E9FF3DA-68D8-418D-A0E8-99F006327A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF679279-1521-4567-9488-85556BC2739F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{78E4E008-1033-4B93-93C2-09E0F288D5FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{78E4E008-1033-4B93-93C2-09E0F288D5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Completion Factors" sheetId="1" r:id="rId1"/>
     <sheet name="Plot Patterns" sheetId="3" r:id="rId2"/>
     <sheet name="Summary" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -124,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="62">
   <si>
     <t>Paid Percentages</t>
   </si>
@@ -277,15 +274,6 @@
   </si>
   <si>
     <t xml:space="preserve">   --------------</t>
-  </si>
-  <si>
-    <t>Previous Quarter</t>
-  </si>
-  <si>
-    <t>Liability Change</t>
-  </si>
-  <si>
-    <t>Annzd Prem Change</t>
   </si>
   <si>
     <t>Selected</t>
@@ -503,7 +491,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -551,6 +539,11 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,12 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4509,2109 +4496,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Document"/>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="EOB Information"/>
-      <sheetName val="PT"/>
-      <sheetName val="Sch H"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Premium"/>
-      <sheetName val="PL"/>
-      <sheetName val="Plan Code Table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Sum of check_amount_total</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>12011</v>
-          </cell>
-          <cell r="B3">
-            <v>40544</v>
-          </cell>
-          <cell r="C3">
-            <v>239001.43583333306</v>
-          </cell>
-          <cell r="D3">
-            <v>2868017.2299999967</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>40575</v>
-          </cell>
-          <cell r="C4">
-            <v>236615.85833333302</v>
-          </cell>
-          <cell r="D4">
-            <v>2839390.2999999961</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>40603</v>
-          </cell>
-          <cell r="C5">
-            <v>232587.45583333311</v>
-          </cell>
-          <cell r="D5">
-            <v>2791049.4699999974</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>40634</v>
-          </cell>
-          <cell r="C6">
-            <v>228685.56916666645</v>
-          </cell>
-          <cell r="D6">
-            <v>2744226.8299999973</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>40664</v>
-          </cell>
-          <cell r="C7">
-            <v>225384.14583333305</v>
-          </cell>
-          <cell r="D7">
-            <v>2704609.7499999967</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>40695</v>
-          </cell>
-          <cell r="C8">
-            <v>223090.91666666648</v>
-          </cell>
-          <cell r="D8">
-            <v>2677090.9999999977</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>40725</v>
-          </cell>
-          <cell r="C9">
-            <v>219511.23916666649</v>
-          </cell>
-          <cell r="D9">
-            <v>2634134.8699999978</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>40756</v>
-          </cell>
-          <cell r="C10">
-            <v>218117.28416666653</v>
-          </cell>
-          <cell r="D10">
-            <v>2617407.4099999983</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>40787</v>
-          </cell>
-          <cell r="C11">
-            <v>215231.70583333328</v>
-          </cell>
-          <cell r="D11">
-            <v>2582780.4699999993</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>40817</v>
-          </cell>
-          <cell r="C12">
-            <v>211321.81416666662</v>
-          </cell>
-          <cell r="D12">
-            <v>2535861.7699999996</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>40848</v>
-          </cell>
-          <cell r="C13">
-            <v>209076.63583333328</v>
-          </cell>
-          <cell r="D13">
-            <v>2508919.6299999994</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>40878</v>
-          </cell>
-          <cell r="C14">
-            <v>205837.50749999998</v>
-          </cell>
-          <cell r="D14">
-            <v>2470050.09</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>40909</v>
-          </cell>
-          <cell r="C15">
-            <v>201327.21999999997</v>
-          </cell>
-          <cell r="D15">
-            <v>2415926.6399999997</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>40940</v>
-          </cell>
-          <cell r="C16">
-            <v>198133.85583333333</v>
-          </cell>
-          <cell r="D16">
-            <v>2377606.27</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>40969</v>
-          </cell>
-          <cell r="C17">
-            <v>196248.42999999996</v>
-          </cell>
-          <cell r="D17">
-            <v>2354981.1599999997</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>41000</v>
-          </cell>
-          <cell r="C18">
-            <v>193768.19666666663</v>
-          </cell>
-          <cell r="D18">
-            <v>2325218.3599999994</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>41030</v>
-          </cell>
-          <cell r="C19">
-            <v>191067.02749999994</v>
-          </cell>
-          <cell r="D19">
-            <v>2292804.3299999991</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>41061</v>
-          </cell>
-          <cell r="C20">
-            <v>187171.18666666653</v>
-          </cell>
-          <cell r="D20">
-            <v>2246054.2399999984</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>41091</v>
-          </cell>
-          <cell r="C21">
-            <v>184963.87249999985</v>
-          </cell>
-          <cell r="D21">
-            <v>2219566.4699999983</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>41122</v>
-          </cell>
-          <cell r="C22">
-            <v>181178.08749999991</v>
-          </cell>
-          <cell r="D22">
-            <v>2174137.0499999989</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>41153</v>
-          </cell>
-          <cell r="C23">
-            <v>178549.99749999994</v>
-          </cell>
-          <cell r="D23">
-            <v>2142599.9699999993</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>41183</v>
-          </cell>
-          <cell r="C24">
-            <v>175892.38916666654</v>
-          </cell>
-          <cell r="D24">
-            <v>2110708.6699999985</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>41214</v>
-          </cell>
-          <cell r="C25">
-            <v>172373.60833333319</v>
-          </cell>
-          <cell r="D25">
-            <v>2068483.2999999982</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>41244</v>
-          </cell>
-          <cell r="C26">
-            <v>169703.28833333313</v>
-          </cell>
-          <cell r="D26">
-            <v>2036439.4599999974</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>41275</v>
-          </cell>
-          <cell r="C27">
-            <v>165767.65999999989</v>
-          </cell>
-          <cell r="D27">
-            <v>1989211.9199999988</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>41306</v>
-          </cell>
-          <cell r="C28">
-            <v>161791.14166666658</v>
-          </cell>
-          <cell r="D28">
-            <v>1941493.699999999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>41334</v>
-          </cell>
-          <cell r="C29">
-            <v>156673.16666666663</v>
-          </cell>
-          <cell r="D29">
-            <v>1880077.9999999995</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>41365</v>
-          </cell>
-          <cell r="C30">
-            <v>154137.9283333334</v>
-          </cell>
-          <cell r="D30">
-            <v>1849655.1400000008</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>41395</v>
-          </cell>
-          <cell r="C31">
-            <v>153979.75750000009</v>
-          </cell>
-          <cell r="D31">
-            <v>1847757.090000001</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>41426</v>
-          </cell>
-          <cell r="C32">
-            <v>151967.3024999999</v>
-          </cell>
-          <cell r="D32">
-            <v>1823607.629999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>41456</v>
-          </cell>
-          <cell r="C33">
-            <v>148807.21666666659</v>
-          </cell>
-          <cell r="D33">
-            <v>1785686.5999999992</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>41487</v>
-          </cell>
-          <cell r="C34">
-            <v>147759.57999999993</v>
-          </cell>
-          <cell r="D34">
-            <v>1773114.9599999993</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>41518</v>
-          </cell>
-          <cell r="C35">
-            <v>145157.59083333326</v>
-          </cell>
-          <cell r="D35">
-            <v>1741891.0899999992</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>41548</v>
-          </cell>
-          <cell r="C36">
-            <v>143189.56583333336</v>
-          </cell>
-          <cell r="D36">
-            <v>1718274.7900000003</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>41579</v>
-          </cell>
-          <cell r="C37">
-            <v>142648.47</v>
-          </cell>
-          <cell r="D37">
-            <v>1711781.6400000001</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>41609</v>
-          </cell>
-          <cell r="C38">
-            <v>139920.47166666671</v>
-          </cell>
-          <cell r="D38">
-            <v>1679045.6600000006</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>41640</v>
-          </cell>
-          <cell r="C39">
-            <v>135447.18749999997</v>
-          </cell>
-          <cell r="D39">
-            <v>1625366.2499999998</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>41671</v>
-          </cell>
-          <cell r="C40">
-            <v>133174.27916666665</v>
-          </cell>
-          <cell r="D40">
-            <v>1598091.3499999996</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>41699</v>
-          </cell>
-          <cell r="C41">
-            <v>132402.76583333328</v>
-          </cell>
-          <cell r="D41">
-            <v>1588833.1899999995</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>41730</v>
-          </cell>
-          <cell r="C42">
-            <v>129883.85083333339</v>
-          </cell>
-          <cell r="D42">
-            <v>1558606.2100000007</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>41760</v>
-          </cell>
-          <cell r="C43">
-            <v>128420.23416666671</v>
-          </cell>
-          <cell r="D43">
-            <v>1541042.8100000005</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>41791</v>
-          </cell>
-          <cell r="C44">
-            <v>126276.81500000005</v>
-          </cell>
-          <cell r="D44">
-            <v>1515321.7800000005</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>41821</v>
-          </cell>
-          <cell r="C45">
-            <v>124663.56000000006</v>
-          </cell>
-          <cell r="D45">
-            <v>1495962.7200000007</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>41852</v>
-          </cell>
-          <cell r="C46">
-            <v>122114.67666666671</v>
-          </cell>
-          <cell r="D46">
-            <v>1465376.1200000006</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>41883</v>
-          </cell>
-          <cell r="C47">
-            <v>120884.55750000004</v>
-          </cell>
-          <cell r="D47">
-            <v>1450614.6900000004</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>41913</v>
-          </cell>
-          <cell r="C48">
-            <v>118765.08583333337</v>
-          </cell>
-          <cell r="D48">
-            <v>1425181.0300000005</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>41944</v>
-          </cell>
-          <cell r="C49">
-            <v>115915.4116666667</v>
-          </cell>
-          <cell r="D49">
-            <v>1390984.9400000004</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>41974</v>
-          </cell>
-          <cell r="C50">
-            <v>113700.29750000003</v>
-          </cell>
-          <cell r="D50">
-            <v>1364403.5700000003</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>42005</v>
-          </cell>
-          <cell r="C51">
-            <v>111201.6391666667</v>
-          </cell>
-          <cell r="D51">
-            <v>1334419.6700000004</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>42036</v>
-          </cell>
-          <cell r="C52">
-            <v>109433.18166666671</v>
-          </cell>
-          <cell r="D52">
-            <v>1313198.1800000006</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>42064</v>
-          </cell>
-          <cell r="C53">
-            <v>108428.83166666671</v>
-          </cell>
-          <cell r="D53">
-            <v>1301145.9800000004</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>42095</v>
-          </cell>
-          <cell r="C54">
-            <v>107715.11000000003</v>
-          </cell>
-          <cell r="D54">
-            <v>1292581.3200000003</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>42125</v>
-          </cell>
-          <cell r="C55">
-            <v>104431.34166666667</v>
-          </cell>
-          <cell r="D55">
-            <v>1253176.1000000001</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>42156</v>
-          </cell>
-          <cell r="C56">
-            <v>103275.92250000003</v>
-          </cell>
-          <cell r="D56">
-            <v>1239311.0700000003</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>42186</v>
-          </cell>
-          <cell r="C57">
-            <v>101631.84083333336</v>
-          </cell>
-          <cell r="D57">
-            <v>1219582.0900000003</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>42217</v>
-          </cell>
-          <cell r="C58">
-            <v>100162.05833333335</v>
-          </cell>
-          <cell r="D58">
-            <v>1201944.7000000002</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>42248</v>
-          </cell>
-          <cell r="C59">
-            <v>99390.884166666699</v>
-          </cell>
-          <cell r="D59">
-            <v>1192690.6100000003</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>42278</v>
-          </cell>
-          <cell r="C60">
-            <v>96091.857500000027</v>
-          </cell>
-          <cell r="D60">
-            <v>1153102.2900000003</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>42309</v>
-          </cell>
-          <cell r="C61">
-            <v>95106.160000000033</v>
-          </cell>
-          <cell r="D61">
-            <v>1141273.9200000004</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>42339</v>
-          </cell>
-          <cell r="C62">
-            <v>94396.430000000037</v>
-          </cell>
-          <cell r="D62">
-            <v>1132757.1600000004</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>42370</v>
-          </cell>
-          <cell r="C63">
-            <v>92046.573333333363</v>
-          </cell>
-          <cell r="D63">
-            <v>1104558.8800000004</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>42401</v>
-          </cell>
-          <cell r="C64">
-            <v>90425.478333333376</v>
-          </cell>
-          <cell r="D64">
-            <v>1085105.7400000005</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>42430</v>
-          </cell>
-          <cell r="C65">
-            <v>89494.425833333386</v>
-          </cell>
-          <cell r="D65">
-            <v>1073933.1100000006</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>42461</v>
-          </cell>
-          <cell r="C66">
-            <v>88530.059166666702</v>
-          </cell>
-          <cell r="D66">
-            <v>1062360.7100000004</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>42491</v>
-          </cell>
-          <cell r="C67">
-            <v>87826.451666666704</v>
-          </cell>
-          <cell r="D67">
-            <v>1053917.4200000004</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>42522</v>
-          </cell>
-          <cell r="C68">
-            <v>86112.279166666689</v>
-          </cell>
-          <cell r="D68">
-            <v>1033347.3500000003</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>42552</v>
-          </cell>
-          <cell r="C69">
-            <v>85881.531666666691</v>
-          </cell>
-          <cell r="D69">
-            <v>1030578.3800000004</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>42583</v>
-          </cell>
-          <cell r="C70">
-            <v>84728.291666666701</v>
-          </cell>
-          <cell r="D70">
-            <v>1016739.5000000003</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>42614</v>
-          </cell>
-          <cell r="C71">
-            <v>83629.612500000032</v>
-          </cell>
-          <cell r="D71">
-            <v>1003555.3500000003</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>42644</v>
-          </cell>
-          <cell r="C72">
-            <v>81844.873333333351</v>
-          </cell>
-          <cell r="D72">
-            <v>982138.48000000021</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>42675</v>
-          </cell>
-          <cell r="C73">
-            <v>80919.865000000034</v>
-          </cell>
-          <cell r="D73">
-            <v>971038.38000000035</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>42705</v>
-          </cell>
-          <cell r="C74">
-            <v>79556.088333333348</v>
-          </cell>
-          <cell r="D74">
-            <v>954673.06000000017</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>42736</v>
-          </cell>
-          <cell r="C75">
-            <v>77526.185000000012</v>
-          </cell>
-          <cell r="D75">
-            <v>930314.2200000002</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>42767</v>
-          </cell>
-          <cell r="C76">
-            <v>74644.128333333341</v>
-          </cell>
-          <cell r="D76">
-            <v>895729.54</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>42795</v>
-          </cell>
-          <cell r="C77">
-            <v>73297.404166666689</v>
-          </cell>
-          <cell r="D77">
-            <v>879568.85000000021</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>42826</v>
-          </cell>
-          <cell r="C78">
-            <v>72173.711666666684</v>
-          </cell>
-          <cell r="D78">
-            <v>866084.54000000027</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>42856</v>
-          </cell>
-          <cell r="C79">
-            <v>71003.762500000026</v>
-          </cell>
-          <cell r="D79">
-            <v>852045.15000000026</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>42887</v>
-          </cell>
-          <cell r="C80">
-            <v>69660.776666666687</v>
-          </cell>
-          <cell r="D80">
-            <v>835929.3200000003</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>42917</v>
-          </cell>
-          <cell r="C81">
-            <v>68669.168333333364</v>
-          </cell>
-          <cell r="D81">
-            <v>824030.02000000037</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>42948</v>
-          </cell>
-          <cell r="C82">
-            <v>67542.391666666677</v>
-          </cell>
-          <cell r="D82">
-            <v>810508.70000000019</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>42979</v>
-          </cell>
-          <cell r="C83">
-            <v>66718.824166666673</v>
-          </cell>
-          <cell r="D83">
-            <v>800625.89000000013</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>43009</v>
-          </cell>
-          <cell r="C84">
-            <v>65275.405833333345</v>
-          </cell>
-          <cell r="D84">
-            <v>783304.87000000011</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>43040</v>
-          </cell>
-          <cell r="C85">
-            <v>63174.834999999999</v>
-          </cell>
-          <cell r="D85">
-            <v>758098.02</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>43070</v>
-          </cell>
-          <cell r="C86">
-            <v>62815.583333333336</v>
-          </cell>
-          <cell r="D86">
-            <v>753787</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>43101</v>
-          </cell>
-          <cell r="C87">
-            <v>61292.520000000011</v>
-          </cell>
-          <cell r="D87">
-            <v>735510.24000000011</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>43132</v>
-          </cell>
-          <cell r="C88">
-            <v>60071.082500000019</v>
-          </cell>
-          <cell r="D88">
-            <v>720852.99000000022</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>43160</v>
-          </cell>
-          <cell r="C89">
-            <v>59314.613333333342</v>
-          </cell>
-          <cell r="D89">
-            <v>711775.3600000001</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>43191</v>
-          </cell>
-          <cell r="C90">
-            <v>58783.493333333347</v>
-          </cell>
-          <cell r="D90">
-            <v>705401.92000000016</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>43221</v>
-          </cell>
-          <cell r="C91">
-            <v>57304.296666666683</v>
-          </cell>
-          <cell r="D91">
-            <v>687651.56000000017</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>43252</v>
-          </cell>
-          <cell r="C92">
-            <v>55938.153333333343</v>
-          </cell>
-          <cell r="D92">
-            <v>671257.84000000008</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>43282</v>
-          </cell>
-          <cell r="C93">
-            <v>55576.937500000007</v>
-          </cell>
-          <cell r="D93">
-            <v>666923.25000000012</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>43313</v>
-          </cell>
-          <cell r="C94">
-            <v>54999.390000000007</v>
-          </cell>
-          <cell r="D94">
-            <v>659992.68000000005</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>43344</v>
-          </cell>
-          <cell r="C95">
-            <v>55312.865833333322</v>
-          </cell>
-          <cell r="D95">
-            <v>663754.3899999999</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>43374</v>
-          </cell>
-          <cell r="C96">
-            <v>54707.169166666667</v>
-          </cell>
-          <cell r="D96">
-            <v>656486.03</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>43405</v>
-          </cell>
-          <cell r="C97">
-            <v>54359.607499999991</v>
-          </cell>
-          <cell r="D97">
-            <v>652315.28999999992</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>43435</v>
-          </cell>
-          <cell r="C98">
-            <v>53883.80083333332</v>
-          </cell>
-          <cell r="D98">
-            <v>646605.60999999987</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>43466</v>
-          </cell>
-          <cell r="C99">
-            <v>52803.717499999999</v>
-          </cell>
-          <cell r="D99">
-            <v>633644.61</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>43497</v>
-          </cell>
-          <cell r="C100">
-            <v>51256.2425</v>
-          </cell>
-          <cell r="D100">
-            <v>615074.91</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>43525</v>
-          </cell>
-          <cell r="C101">
-            <v>49140.509166666663</v>
-          </cell>
-          <cell r="D101">
-            <v>589686.11</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>43556</v>
-          </cell>
-          <cell r="C102">
-            <v>48238.895833333336</v>
-          </cell>
-          <cell r="D102">
-            <v>578866.75</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>43586</v>
-          </cell>
-          <cell r="C103">
-            <v>47716.72583333333</v>
-          </cell>
-          <cell r="D103">
-            <v>572600.71</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>43617</v>
-          </cell>
-          <cell r="C104">
-            <v>47813.347499999996</v>
-          </cell>
-          <cell r="D104">
-            <v>573760.16999999993</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>43647</v>
-          </cell>
-          <cell r="C105">
-            <v>46336.039166666662</v>
-          </cell>
-          <cell r="D105">
-            <v>556032.47</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>43678</v>
-          </cell>
-          <cell r="C106">
-            <v>45265.915000000001</v>
-          </cell>
-          <cell r="D106">
-            <v>543190.98</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>43709</v>
-          </cell>
-          <cell r="C107">
-            <v>43667.750833333332</v>
-          </cell>
-          <cell r="D107">
-            <v>524013.01</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>43739</v>
-          </cell>
-          <cell r="C108">
-            <v>42612.30333333333</v>
-          </cell>
-          <cell r="D108">
-            <v>511347.63999999996</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>43770</v>
-          </cell>
-          <cell r="C109">
-            <v>42633.246666666666</v>
-          </cell>
-          <cell r="D109">
-            <v>511598.95999999996</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>43800</v>
-          </cell>
-          <cell r="C110">
-            <v>41987.374166666668</v>
-          </cell>
-          <cell r="D110">
-            <v>503848.49</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>43831</v>
-          </cell>
-          <cell r="C111">
-            <v>41244.566666666666</v>
-          </cell>
-          <cell r="D111">
-            <v>494934.8</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>43862</v>
-          </cell>
-          <cell r="C112">
-            <v>39397.486666666664</v>
-          </cell>
-          <cell r="D112">
-            <v>472769.83999999997</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>43891</v>
-          </cell>
-          <cell r="C113">
-            <v>38954.154166666667</v>
-          </cell>
-          <cell r="D113">
-            <v>467449.85</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>43922</v>
-          </cell>
-          <cell r="C114">
-            <v>37377.395833333336</v>
-          </cell>
-          <cell r="D114">
-            <v>448528.75</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>43952</v>
-          </cell>
-          <cell r="C115">
-            <v>36380.389999999992</v>
-          </cell>
-          <cell r="D115">
-            <v>436564.67999999993</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>43983</v>
-          </cell>
-          <cell r="C116">
-            <v>35460.923333333332</v>
-          </cell>
-          <cell r="D116">
-            <v>425531.07999999996</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>44013</v>
-          </cell>
-          <cell r="C117">
-            <v>34982.279166666667</v>
-          </cell>
-          <cell r="D117">
-            <v>419787.35</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>44044</v>
-          </cell>
-          <cell r="C118">
-            <v>33337.6875</v>
-          </cell>
-          <cell r="D118">
-            <v>400052.25</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>44075</v>
-          </cell>
-          <cell r="C119">
-            <v>32514.344166666666</v>
-          </cell>
-          <cell r="D119">
-            <v>390172.13</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>44105</v>
-          </cell>
-          <cell r="C120">
-            <v>31974.190000000002</v>
-          </cell>
-          <cell r="D120">
-            <v>383690.28</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>44136</v>
-          </cell>
-          <cell r="C121">
-            <v>31105.973333333339</v>
-          </cell>
-          <cell r="D121">
-            <v>373271.68000000005</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>44166</v>
-          </cell>
-          <cell r="C122">
-            <v>30820.583333333339</v>
-          </cell>
-          <cell r="D122">
-            <v>369847.00000000006</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>44197</v>
-          </cell>
-          <cell r="C123">
-            <v>29931.854166666668</v>
-          </cell>
-          <cell r="D123">
-            <v>359182.25</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>44228</v>
-          </cell>
-          <cell r="C124">
-            <v>29026.825833333325</v>
-          </cell>
-          <cell r="D124">
-            <v>348321.90999999992</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>44256</v>
-          </cell>
-          <cell r="C125">
-            <v>28621.484999999997</v>
-          </cell>
-          <cell r="D125">
-            <v>343457.81999999995</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>44287</v>
-          </cell>
-          <cell r="C126">
-            <v>28386.134999999998</v>
-          </cell>
-          <cell r="D126">
-            <v>340633.62</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>44317</v>
-          </cell>
-          <cell r="C127">
-            <v>27895.538333333334</v>
-          </cell>
-          <cell r="D127">
-            <v>334746.46000000002</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>44348</v>
-          </cell>
-          <cell r="C128">
-            <v>27222.636666666669</v>
-          </cell>
-          <cell r="D128">
-            <v>326671.64</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>44378</v>
-          </cell>
-          <cell r="C129">
-            <v>26531.900833333333</v>
-          </cell>
-          <cell r="D129">
-            <v>318382.81</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>44409</v>
-          </cell>
-          <cell r="C130">
-            <v>25665.890833333335</v>
-          </cell>
-          <cell r="D130">
-            <v>307990.69</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>44440</v>
-          </cell>
-          <cell r="C131">
-            <v>25665.890833333335</v>
-          </cell>
-          <cell r="D131">
-            <v>307990.69</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>44470</v>
-          </cell>
-          <cell r="C132">
-            <v>24066.094166666666</v>
-          </cell>
-          <cell r="D132">
-            <v>288793.13</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>44501</v>
-          </cell>
-          <cell r="C133">
-            <v>23106.041666666668</v>
-          </cell>
-          <cell r="D133">
-            <v>277272.5</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>44531</v>
-          </cell>
-          <cell r="C134">
-            <v>22846.781666666666</v>
-          </cell>
-          <cell r="D134">
-            <v>274161.38</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>44562</v>
-          </cell>
-          <cell r="C135">
-            <v>22346.273333333334</v>
-          </cell>
-          <cell r="D135">
-            <v>268155.28000000003</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>44593</v>
-          </cell>
-          <cell r="C136">
-            <v>21676.713333333337</v>
-          </cell>
-          <cell r="D136">
-            <v>260120.56000000003</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>44621</v>
-          </cell>
-          <cell r="C137">
-            <v>21980.803333333333</v>
-          </cell>
-          <cell r="D137">
-            <v>263769.64</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>44652</v>
-          </cell>
-          <cell r="C138">
-            <v>21687.915000000001</v>
-          </cell>
-          <cell r="D138">
-            <v>260254.98</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>44682</v>
-          </cell>
-          <cell r="C139">
-            <v>20617.48166666667</v>
-          </cell>
-          <cell r="D139">
-            <v>247409.78000000003</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>44713</v>
-          </cell>
-          <cell r="C140">
-            <v>20047.02</v>
-          </cell>
-          <cell r="D140">
-            <v>240564.24</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>44743</v>
-          </cell>
-          <cell r="C141">
-            <v>19695.693333333333</v>
-          </cell>
-          <cell r="D141">
-            <v>236348.31999999998</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>44774</v>
-          </cell>
-          <cell r="C142">
-            <v>19467.213333333333</v>
-          </cell>
-          <cell r="D142">
-            <v>233606.56</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>44805</v>
-          </cell>
-          <cell r="C143">
-            <v>19276.708333333332</v>
-          </cell>
-          <cell r="D143">
-            <v>231320.5</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144">
-            <v>44835</v>
-          </cell>
-          <cell r="C144">
-            <v>18974.55</v>
-          </cell>
-          <cell r="D144">
-            <v>227694.59999999998</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145">
-            <v>44866</v>
-          </cell>
-          <cell r="C145">
-            <v>18635.426666666666</v>
-          </cell>
-          <cell r="D145">
-            <v>223625.12</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>44896</v>
-          </cell>
-          <cell r="C146">
-            <v>18405.906666666666</v>
-          </cell>
-          <cell r="D146">
-            <v>220870.87999999998</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>44927</v>
-          </cell>
-          <cell r="C147">
-            <v>17768.024166666666</v>
-          </cell>
-          <cell r="D147">
-            <v>213216.28999999998</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>44958</v>
-          </cell>
-          <cell r="C148">
-            <v>17002.068333333333</v>
-          </cell>
-          <cell r="D148">
-            <v>204024.82</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>44986</v>
-          </cell>
-          <cell r="C149">
-            <v>15698.959166666667</v>
-          </cell>
-          <cell r="D149">
-            <v>188387.51</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>45017</v>
-          </cell>
-          <cell r="C150">
-            <v>15156.199166666667</v>
-          </cell>
-          <cell r="D150">
-            <v>181874.39</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>45047</v>
-          </cell>
-          <cell r="C151">
-            <v>15001.129166666668</v>
-          </cell>
-          <cell r="D151">
-            <v>180013.55000000002</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>45078</v>
-          </cell>
-          <cell r="C152">
-            <v>15001.129166666668</v>
-          </cell>
-          <cell r="D152">
-            <v>180013.55000000002</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>45108</v>
-          </cell>
-          <cell r="C153">
-            <v>14638.657500000001</v>
-          </cell>
-          <cell r="D153">
-            <v>175663.89</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>45139</v>
-          </cell>
-          <cell r="C154">
-            <v>13948.457499999999</v>
-          </cell>
-          <cell r="D154">
-            <v>167381.49</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>45170</v>
-          </cell>
-          <cell r="C155">
-            <v>13651.490833333335</v>
-          </cell>
-          <cell r="D155">
-            <v>163817.89000000001</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>45200</v>
-          </cell>
-          <cell r="C156">
-            <v>12926.258333333337</v>
-          </cell>
-          <cell r="D156">
-            <v>155115.10000000003</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>45231</v>
-          </cell>
-          <cell r="C157">
-            <v>12565.323333333334</v>
-          </cell>
-          <cell r="D157">
-            <v>150783.88</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>45261</v>
-          </cell>
-          <cell r="C158">
-            <v>12122.973333333335</v>
-          </cell>
-          <cell r="D158">
-            <v>145475.68000000002</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>45292</v>
-          </cell>
-          <cell r="C159">
-            <v>11200.785000000002</v>
-          </cell>
-          <cell r="D159">
-            <v>134409.42000000001</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>45323</v>
-          </cell>
-          <cell r="C160">
-            <v>11200.785000000002</v>
-          </cell>
-          <cell r="D160">
-            <v>134409.42000000001</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>45352</v>
-          </cell>
-          <cell r="C161">
-            <v>11021.963333333333</v>
-          </cell>
-          <cell r="D161">
-            <v>132263.56</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>45383</v>
-          </cell>
-          <cell r="C162">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>45413</v>
-          </cell>
-          <cell r="C163">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>45444</v>
-          </cell>
-          <cell r="C164">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>45474</v>
-          </cell>
-          <cell r="C165">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>45505</v>
-          </cell>
-          <cell r="C166">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>45536</v>
-          </cell>
-          <cell r="C167">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>45566</v>
-          </cell>
-          <cell r="C168">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>45597</v>
-          </cell>
-          <cell r="C169">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>45627</v>
-          </cell>
-          <cell r="C170">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>45658</v>
-          </cell>
-          <cell r="C171">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>45689</v>
-          </cell>
-          <cell r="C172">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>45717</v>
-          </cell>
-          <cell r="C173">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>45748</v>
-          </cell>
-          <cell r="C174">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>45778</v>
-          </cell>
-          <cell r="C175">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>45809</v>
-          </cell>
-          <cell r="C176">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>45839</v>
-          </cell>
-          <cell r="C177">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>45870</v>
-          </cell>
-          <cell r="C178">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>45901</v>
-          </cell>
-          <cell r="C179">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>45931</v>
-          </cell>
-          <cell r="C180">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>45962</v>
-          </cell>
-          <cell r="C181">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>45992</v>
-          </cell>
-          <cell r="C182">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>46023</v>
-          </cell>
-          <cell r="C183">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>46054</v>
-          </cell>
-          <cell r="C184">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>46082</v>
-          </cell>
-          <cell r="C185">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>46113</v>
-          </cell>
-          <cell r="C186">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>46143</v>
-          </cell>
-          <cell r="C187">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>46174</v>
-          </cell>
-          <cell r="C188">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>46204</v>
-          </cell>
-          <cell r="C189">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190">
-            <v>46235</v>
-          </cell>
-          <cell r="C190">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191">
-            <v>46266</v>
-          </cell>
-          <cell r="C191">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192">
-            <v>46296</v>
-          </cell>
-          <cell r="C192">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193">
-            <v>46327</v>
-          </cell>
-          <cell r="C193">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194">
-            <v>46357</v>
-          </cell>
-          <cell r="C194">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195">
-            <v>46388</v>
-          </cell>
-          <cell r="C195">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196">
-            <v>46419</v>
-          </cell>
-          <cell r="C196">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197">
-            <v>46447</v>
-          </cell>
-          <cell r="C197">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198">
-            <v>46478</v>
-          </cell>
-          <cell r="C198">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199">
-            <v>46508</v>
-          </cell>
-          <cell r="C199">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200">
-            <v>46539</v>
-          </cell>
-          <cell r="C200">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6935,38 +4819,38 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="9" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="27" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -6982,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -7000,13 +4884,13 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7029,7 +4913,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>5</v>
@@ -7038,7 +4922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -7068,7 +4952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -7100,7 +4984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -7129,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" ref="A8:A29" si="1">1+A7</f>
         <v>1</v>
@@ -7159,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7189,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -7219,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7249,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7279,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7309,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7339,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7369,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7399,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7429,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7459,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7489,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7519,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7549,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7579,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7609,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7639,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7669,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7699,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7729,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7759,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7789,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>23</v>
       </c>
@@ -7822,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7848,7 +5732,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -7874,7 +5758,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>20</v>
       </c>
@@ -7904,7 +5788,7 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -7978,7 +5862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -8006,7 +5890,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
     </row>
-    <row r="39" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" ref="A39:A60" si="4">1+A38</f>
         <v>1</v>
@@ -8035,7 +5919,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -8062,7 +5946,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
     </row>
-    <row r="41" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -8089,7 +5973,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -8116,7 +6000,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
     </row>
-    <row r="43" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -8142,7 +6026,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -8168,7 +6052,7 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -8195,7 +6079,7 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -8222,7 +6106,7 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -8248,7 +6132,7 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -8272,7 +6156,7 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -8293,7 +6177,7 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -8312,7 +6196,7 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -8330,7 +6214,7 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -8346,7 +6230,7 @@
       <c r="J52" s="4"/>
       <c r="V52" s="4"/>
     </row>
-    <row r="53" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -8360,7 +6244,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -8373,7 +6257,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -8385,7 +6269,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -8396,7 +6280,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -8406,7 +6290,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -8415,7 +6299,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -8423,7 +6307,7 @@
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -8442,738 +6326,738 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A121FFD-C2DF-4B67-A547-73CD78BEAF38}">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" customWidth="1"/>
-    <col min="12" max="12" width="4.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="F1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="G1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="H1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="I1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="J1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="37" t="s">
+      <c r="N1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="Q1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="R1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="S1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="T1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="U1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="37">
+      <c r="V1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="M2" s="37">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="M2" s="33">
         <v>1</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="M3">
         <f>+M2+1</f>
         <v>2</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">+A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="M4">
         <f t="shared" ref="M4:M24" si="1">+M3+1</f>
         <v>3</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="M5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
       <c r="M6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
       <c r="M7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="M8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
       <c r="M9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
       <c r="M10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
       <c r="M11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
       <c r="M12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
       <c r="M13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
       <c r="M14">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
       <c r="M15">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
       <c r="M16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
       <c r="M17">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
       <c r="M18">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
       <c r="M19">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
       <c r="M20">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
       <c r="M21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
       <c r="M22">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="M23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
       <c r="M24">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9185,37 +7069,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC925F8-292B-4446-A0F6-4CBF2C3387B6}">
   <dimension ref="A4:AR54"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.26953125" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" customWidth="1"/>
-    <col min="19" max="40" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" customWidth="1"/>
+    <col min="18" max="18" width="10.21875" customWidth="1"/>
+    <col min="19" max="40" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
@@ -9229,14 +7112,14 @@
         <v>27</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -9268,7 +7151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -9315,7 +7198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -9461,7 +7344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="e">
         <f t="shared" ref="A8:A29" si="0">DATE(YEAR(A9),MONTH(A9)-1,1)</f>
         <v>#NUM!</v>
@@ -9536,7 +7419,7 @@
       <c r="AQ8" s="13"/>
       <c r="AR8" s="13"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -9611,7 +7494,7 @@
       <c r="AQ9" s="13"/>
       <c r="AR9" s="13"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -9686,7 +7569,7 @@
       <c r="AQ10" s="13"/>
       <c r="AR10" s="13"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -9761,7 +7644,7 @@
       <c r="AQ11" s="13"/>
       <c r="AR11" s="13"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -9836,7 +7719,7 @@
       <c r="AQ12" s="13"/>
       <c r="AR12" s="13"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -9911,7 +7794,7 @@
       <c r="AQ13" s="13"/>
       <c r="AR13" s="13"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -9986,7 +7869,7 @@
       <c r="AQ14" s="13"/>
       <c r="AR14" s="13"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10061,7 +7944,7 @@
       <c r="AQ15" s="13"/>
       <c r="AR15" s="13"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10136,7 +8019,7 @@
       <c r="AQ16" s="13"/>
       <c r="AR16" s="13"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10211,7 +8094,7 @@
       <c r="AQ17" s="13"/>
       <c r="AR17" s="13"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10286,7 +8169,7 @@
       <c r="AQ18" s="13"/>
       <c r="AR18" s="13"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10364,7 +8247,7 @@
       <c r="AQ19" s="13"/>
       <c r="AR19" s="13"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10448,7 +8331,7 @@
       <c r="AQ20" s="13"/>
       <c r="AR20" s="13"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10532,7 +8415,7 @@
       <c r="AQ21" s="13"/>
       <c r="AR21" s="13"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10616,7 +8499,7 @@
       <c r="AQ22" s="13"/>
       <c r="AR22" s="13"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10700,7 +8583,7 @@
       <c r="AQ23" s="13"/>
       <c r="AR23" s="13"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10786,7 +8669,7 @@
       <c r="AQ24" s="13"/>
       <c r="AR24" s="13"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10872,7 +8755,7 @@
       <c r="AQ25" s="13"/>
       <c r="AR25" s="13"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -10958,7 +8841,7 @@
       <c r="AQ26" s="13"/>
       <c r="AR26" s="13"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -11044,7 +8927,7 @@
       <c r="AQ27" s="13"/>
       <c r="AR27" s="13"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -11130,7 +9013,7 @@
       <c r="AQ28" s="13"/>
       <c r="AR28" s="13"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -11214,7 +9097,7 @@
       <c r="AQ29" s="13"/>
       <c r="AR29" s="13"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="e">
         <f>DATE(YEAR(A31),MONTH(A31)-1,1)</f>
         <v>#NUM!</v>
@@ -11298,7 +9181,7 @@
       <c r="AQ30" s="13"/>
       <c r="AR30" s="13"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <f>DATE(YEAR(H4),MONTH(H4),1)</f>
         <v>1</v>
@@ -11382,7 +9265,7 @@
       <c r="AQ31" s="13"/>
       <c r="AR31" s="13"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="H32" s="23" t="s">
         <v>50</v>
       </c>
@@ -11415,7 +9298,7 @@
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C33" s="18"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -11434,7 +9317,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C34" s="18"/>
       <c r="D34" s="13"/>
       <c r="G34" t="str">
@@ -11445,23 +9328,15 @@
       <c r="J34" s="25"/>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C35" s="18"/>
       <c r="D35" s="13"/>
       <c r="H35" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" s="18"/>
       <c r="D36" s="13"/>
       <c r="F36" s="25"/>
@@ -11470,25 +9345,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="28"/>
-      <c r="J36" s="29" t="e">
-        <f>(H36-I36)/I36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="29" t="e">
-        <f>(VLOOKUP(DATE(YEAR(H4),MONTH(H4),DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE)-VLOOKUP(DATE(YEAR(H4),MONTH(H4)-3,DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE))/VLOOKUP(DATE(YEAR(H4),MONTH(H4),DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C37" s="18"/>
       <c r="D37" s="13"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C38" s="18"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C39" s="18"/>
       <c r="D39" s="13"/>
       <c r="F39" s="10"/>
@@ -11500,7 +9369,7 @@
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C40" s="18"/>
       <c r="D40" s="13"/>
       <c r="H40" s="30"/>
@@ -11509,11 +9378,11 @@
       <c r="K40" s="30"/>
       <c r="L40" s="31"/>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C41" s="18"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C42" s="18"/>
       <c r="D42" s="13"/>
       <c r="H42" s="18"/>
@@ -11523,7 +9392,7 @@
       <c r="L42" s="31"/>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C43" s="18"/>
       <c r="D43" s="13"/>
       <c r="H43" s="18"/>
@@ -11534,45 +9403,45 @@
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C44" s="18"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C45" s="18"/>
       <c r="D45" s="13"/>
       <c r="H45" s="32"/>
       <c r="I45" s="29"/>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C46" s="18"/>
       <c r="D46" s="13"/>
       <c r="H46" s="32"/>
       <c r="I46" s="29"/>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C47" s="18"/>
       <c r="D47" s="13"/>
       <c r="H47" s="32"/>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C48" s="18"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53" s="25"/>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H54" s="25"/>
     </row>
   </sheetData>
